--- a/biology/Botanique/Pyrola/Pyrola.xlsx
+++ b/biology/Botanique/Pyrola/Pyrola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrole
-Pyrola, les Pyroles (ou Piroles) est un genre de plante à fleurs de la famille des Ericaceae. Ce sont des plantes herbacées. Les espèces sont des hôtes alternants de la rouille des cônes de l'épinette (Chrysomyxa pirolata). Les feuilles infectées de Pyrola spp. sont légèrement chlorotiques et plus dressées et leur surface est moins brillante que celle des feuilles en bonne santé. La rouille des cônes de l'épinette est systémique et vivace dans les hôtes alternants[1],[2]. 
+Pyrola, les Pyroles (ou Piroles) est un genre de plante à fleurs de la famille des Ericaceae. Ce sont des plantes herbacées. Les espèces sont des hôtes alternants de la rouille des cônes de l'épinette (Chrysomyxa pirolata). Les feuilles infectées de Pyrola spp. sont légèrement chlorotiques et plus dressées et leur surface est moins brillante que celle des feuilles en bonne santé. La rouille des cônes de l'épinette est systémique et vivace dans les hôtes alternants,. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon GBIF       (6 juin 2022)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon GBIF       (6 juin 2022) :
 Braxilia heterophyla Raf.
 Braxilia squamata Raf.
 Braxilia viridiflora Raf.
@@ -607,7 +621,9 @@
           <t>Espèces déplacées vers d'autres genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour Pyrola secunda L., 1753, voir  Orthilia secunda
 Pour Pyrola uniflora L., 1753, voir Moneses uniflora
@@ -639,9 +655,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pyrola a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pyrola a pour synonymes :
 Actinocyclus Klotzsch
 Amelia Alef.
 Braxilia Raf.
